--- a/Korrelationsanalyse/correlation_analysis.xlsx
+++ b/Korrelationsanalyse/correlation_analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="600" windowWidth="27100" windowHeight="16380" tabRatio="500" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="400" yWindow="600" windowWidth="27100" windowHeight="16380" tabRatio="500" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="01_Please Please Me" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="11_Yellow Submarine" sheetId="11" r:id="rId11"/>
     <sheet name="12_Abbey Road" sheetId="12" r:id="rId12"/>
     <sheet name="13_Let It Be" sheetId="13" r:id="rId13"/>
-    <sheet name="Analyse" sheetId="14" r:id="rId14"/>
+    <sheet name="Analyse Mittelwert" sheetId="14" r:id="rId14"/>
+    <sheet name="Analyse Mittelwert gestutzt" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_01_Please_Please_Me_analysis_1" localSheetId="0">'01_Please Please Me'!$A$1:$Y$15</definedName>
@@ -463,7 +464,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="245">
   <si>
     <t>song_title</t>
   </si>
@@ -1605,7 +1606,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Analyse!$B$3:$B$11</c:f>
+              <c:f>'Analyse Mittelwert'!$B$3:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1641,7 +1642,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Analyse!$H$3:$H$11</c:f>
+              <c:f>'Analyse Mittelwert'!$H$3:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1685,11 +1686,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1153717072"/>
-        <c:axId val="1154064368"/>
+        <c:axId val="1031310448"/>
+        <c:axId val="1066520288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1153717072"/>
+        <c:axId val="1031310448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,12 +1788,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1154064368"/>
+        <c:crossAx val="1066520288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1154064368"/>
+        <c:axId val="1066520288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1919,7 +1920,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1153717072"/>
+        <c:crossAx val="1031310448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2158,7 +2159,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Analyse!$B$12:$B$15</c:f>
+              <c:f>'Analyse Mittelwert'!$B$12:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2179,7 +2180,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Analyse!$I$12:$I$15</c:f>
+              <c:f>'Analyse Mittelwert'!$I$12:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2208,11 +2209,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1150617120"/>
-        <c:axId val="1150549904"/>
+        <c:axId val="1066545104"/>
+        <c:axId val="1066548496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1150617120"/>
+        <c:axId val="1066545104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,12 +2311,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1150549904"/>
+        <c:crossAx val="1066548496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1150549904"/>
+        <c:axId val="1066548496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,7 +2442,1077 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1150617120"/>
+        <c:crossAx val="1066545104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Phase 1 Ebene1+Ebene2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.355096237970254"/>
+                  <c:y val="-0.271052785068533"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Analyse Mittelwert gestutzt'!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Analyse Mittelwert gestutzt'!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.711356115651941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.699026968861222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.644630603301365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.715994565075436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.660459751593787</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.672568233531969</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.624228503738349</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.597172953942466</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.651627670580563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1109675408"/>
+        <c:axId val="1109678528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1109675408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Album</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1109678528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1109678528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anteil</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1109675408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Phase2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Ebene3+Ebene4</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.351415135608049"/>
+                  <c:y val="0.0243941382327209"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Analyse Mittelwert gestutzt'!$B$12:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Analyse Mittelwert gestutzt'!$I$12:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.352516860387831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.276891347224055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.395762391976179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.313524959414715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1068751952"/>
+        <c:axId val="1068755344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1068751952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Album</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1068755344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1068755344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anteil</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1068751952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2563,6 +3634,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3634,6 +4785,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3683,6 +5866,75 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Diagramm 6"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2279650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4017,7 +6269,7 @@
   <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17:AI17"/>
+      <selection activeCell="AF18" sqref="AF18:AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5886,7 +8138,7 @@
   <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AF32" sqref="AF32:AI32"/>
+      <selection activeCell="AF33" sqref="AF33:AI33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9505,7 +11757,7 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7:AI7"/>
+      <selection activeCell="AF8" sqref="AF8:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10202,7 +12454,7 @@
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20:AI20"/>
+      <selection activeCell="AF21" sqref="AF21:AI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12420,7 +14672,7 @@
   <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15:AI15"/>
+      <selection activeCell="AF16" sqref="AF16:AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14049,7 +16301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -15111,12 +17363,1078 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1963</v>
+      </c>
+      <c r="D3">
+        <v>0.40314738064276462</v>
+      </c>
+      <c r="E3">
+        <v>0.30820873500917684</v>
+      </c>
+      <c r="F3">
+        <v>0.23093297197948534</v>
+      </c>
+      <c r="G3">
+        <v>5.0011166248411426E-2</v>
+      </c>
+      <c r="H3">
+        <f xml:space="preserve"> D3+E3</f>
+        <v>0.71135611565194146</v>
+      </c>
+      <c r="I3">
+        <f>F3+G3</f>
+        <v>0.28094413822789677</v>
+      </c>
+      <c r="J3">
+        <v>0.42890979967203985</v>
+      </c>
+      <c r="K3">
+        <v>0.35883218608192363</v>
+      </c>
+      <c r="L3">
+        <v>0.15264220589028293</v>
+      </c>
+      <c r="M3">
+        <v>3.4966190474306581E-2</v>
+      </c>
+      <c r="N3">
+        <f>J3+K3</f>
+        <v>0.78774198575396348</v>
+      </c>
+      <c r="O3">
+        <f>L3+M3</f>
+        <v>0.18760839636458951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1963</v>
+      </c>
+      <c r="D4">
+        <v>0.38500373109670782</v>
+      </c>
+      <c r="E4">
+        <v>0.31402323776451441</v>
+      </c>
+      <c r="F4">
+        <v>0.21535577153887434</v>
+      </c>
+      <c r="G4">
+        <v>7.5655562529320444E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H15" si="0" xml:space="preserve"> D4+E4</f>
+        <v>0.69902696886122229</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I15" si="1">F4+G4</f>
+        <v>0.29101133406819479</v>
+      </c>
+      <c r="J4">
+        <v>0.52174697369686651</v>
+      </c>
+      <c r="K4">
+        <v>0.23868535044097614</v>
+      </c>
+      <c r="L4">
+        <v>0.17398559219484941</v>
+      </c>
+      <c r="M4">
+        <v>5.1057213397222696E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N14" si="2">J4+K4</f>
+        <v>0.76043232413784267</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O15" si="3">L4+M4</f>
+        <v>0.2250428055920721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1964</v>
+      </c>
+      <c r="D5">
+        <v>0.33254761175410835</v>
+      </c>
+      <c r="E5">
+        <v>0.31208299154725644</v>
+      </c>
+      <c r="F5">
+        <v>0.23601450508771799</v>
+      </c>
+      <c r="G5">
+        <v>0.10157828356081779</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.64463060330136479</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.33759278864853576</v>
+      </c>
+      <c r="J5">
+        <v>0.41664825227601604</v>
+      </c>
+      <c r="K5">
+        <v>0.22653047482270081</v>
+      </c>
+      <c r="L5">
+        <v>0.21911127590237467</v>
+      </c>
+      <c r="M5">
+        <v>0.13435555987186565</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>0.64317872709871682</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>0.35346683577424032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1964</v>
+      </c>
+      <c r="D6">
+        <v>0.36413620518061385</v>
+      </c>
+      <c r="E6">
+        <v>0.35185835989482217</v>
+      </c>
+      <c r="F6">
+        <v>0.2369930235938634</v>
+      </c>
+      <c r="G6">
+        <v>4.7108772417991239E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.71599456507543602</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.28410179601185465</v>
+      </c>
+      <c r="J6">
+        <v>0.48005586109964321</v>
+      </c>
+      <c r="K6">
+        <v>0.29515936192349551</v>
+      </c>
+      <c r="L6">
+        <v>0.14354541216098257</v>
+      </c>
+      <c r="M6">
+        <v>6.2601049303432618E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0.77521522302313872</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>0.20614646146441518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1965</v>
+      </c>
+      <c r="D7">
+        <v>0.34290699702531396</v>
+      </c>
+      <c r="E7">
+        <v>0.31755275456847271</v>
+      </c>
+      <c r="F7">
+        <v>0.26680321187636075</v>
+      </c>
+      <c r="G7">
+        <v>7.2308679214533558E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.66045975159378667</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.33911189109089429</v>
+      </c>
+      <c r="J7">
+        <v>0.42421280023307029</v>
+      </c>
+      <c r="K7">
+        <v>0.36170792962314963</v>
+      </c>
+      <c r="L7">
+        <v>0.12940369447130687</v>
+      </c>
+      <c r="M7">
+        <v>7.9384876158321224E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0.78592072985621986</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>0.20878857062962808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1965</v>
+      </c>
+      <c r="D8">
+        <v>0.36738088246347922</v>
+      </c>
+      <c r="E8">
+        <v>0.30518735106848965</v>
+      </c>
+      <c r="F8">
+        <v>0.2365630168672169</v>
+      </c>
+      <c r="G8">
+        <v>8.4376999104504538E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.67256823353196893</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.32094001597172145</v>
+      </c>
+      <c r="J8">
+        <v>0.47961858647926653</v>
+      </c>
+      <c r="K8">
+        <v>0.20242816818441534</v>
+      </c>
+      <c r="L8">
+        <v>0.19614599880259156</v>
+      </c>
+      <c r="M8">
+        <v>9.3216758444194484E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0.68204675466368192</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>0.28936275724678606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1966</v>
+      </c>
+      <c r="D9">
+        <v>0.36392437620944018</v>
+      </c>
+      <c r="E9">
+        <v>0.26030412752890858</v>
+      </c>
+      <c r="F9">
+        <v>0.22696869602277725</v>
+      </c>
+      <c r="G9">
+        <v>0.13884238929243803</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.62422850373834882</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.36581108531521528</v>
+      </c>
+      <c r="J9">
+        <v>0.45530965896436926</v>
+      </c>
+      <c r="K9">
+        <v>0.15337347528634052</v>
+      </c>
+      <c r="L9">
+        <v>0.23154674862409841</v>
+      </c>
+      <c r="M9">
+        <v>0.11712196453631636</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0.60868313425070975</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>0.34866871316041476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1967</v>
+      </c>
+      <c r="D10">
+        <v>0.32163245178638761</v>
+      </c>
+      <c r="E10">
+        <v>0.27554050215607817</v>
+      </c>
+      <c r="F10">
+        <v>0.27723119743165286</v>
+      </c>
+      <c r="G10">
+        <v>0.10437661019818881</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.59717295394246572</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.3816078076298417</v>
+      </c>
+      <c r="J10">
+        <v>0.31382908202894583</v>
+      </c>
+      <c r="K10">
+        <v>0.31154491801262174</v>
+      </c>
+      <c r="L10">
+        <v>0.25156499426081708</v>
+      </c>
+      <c r="M10">
+        <v>0.10323934139217282</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0.62537400004156751</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>0.35480433565298991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1967</v>
+      </c>
+      <c r="D11">
+        <v>0.33245901006510797</v>
+      </c>
+      <c r="E11">
+        <v>0.31916866051545539</v>
+      </c>
+      <c r="F11">
+        <v>0.24168730448899214</v>
+      </c>
+      <c r="G11">
+        <v>9.7666347025462105E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.65162767058056337</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.33935365151445424</v>
+      </c>
+      <c r="J11">
+        <v>0.45175595633105559</v>
+      </c>
+      <c r="K11">
+        <v>0.23808012246979571</v>
+      </c>
+      <c r="L11">
+        <v>0.16151508082596092</v>
+      </c>
+      <c r="M11">
+        <v>0.1034602015641263</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0.68983607880085129</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>0.26497528239008722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1968</v>
+      </c>
+      <c r="D12">
+        <v>0.33366367223803822</v>
+      </c>
+      <c r="E12">
+        <v>0.30434694146425179</v>
+      </c>
+      <c r="F12">
+        <v>0.23288795413396482</v>
+      </c>
+      <c r="G12">
+        <v>0.11962890625386673</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.63801061370229006</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.35251686038783153</v>
+      </c>
+      <c r="J12">
+        <v>0.42819613343473234</v>
+      </c>
+      <c r="K12">
+        <v>0.24963679618423723</v>
+      </c>
+      <c r="L12">
+        <v>0.1824096704787565</v>
+      </c>
+      <c r="M12">
+        <v>0.10883556157376888</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0.67783292961896957</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>0.29124523205252539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1969</v>
+      </c>
+      <c r="D13">
+        <v>0.33297935062289818</v>
+      </c>
+      <c r="E13">
+        <v>0.39012930215304731</v>
+      </c>
+      <c r="F13">
+        <v>0.22959061974880074</v>
+      </c>
+      <c r="G13">
+        <v>4.7300727475253809E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.72310865277594549</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0.27689134722405456</v>
+      </c>
+      <c r="J13">
+        <v>0.47156537418614841</v>
+      </c>
+      <c r="K13">
+        <v>0.25637595079617892</v>
+      </c>
+      <c r="L13">
+        <v>0.25216438326291568</v>
+      </c>
+      <c r="M13">
+        <v>1.989429175475687E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0.72794132498232733</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>0.27205867501767256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1969</v>
+      </c>
+      <c r="D14">
+        <v>0.33316580566201182</v>
+      </c>
+      <c r="E14">
+        <v>0.27074537700234763</v>
+      </c>
+      <c r="F14">
+        <v>0.27395450410977873</v>
+      </c>
+      <c r="G14">
+        <v>0.12180788786639997</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.6039111826643595</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.39576239197617868</v>
+      </c>
+      <c r="J14">
+        <v>0.35120542677026345</v>
+      </c>
+      <c r="K14">
+        <v>0.26527760805190037</v>
+      </c>
+      <c r="L14">
+        <v>0.1963366734070984</v>
+      </c>
+      <c r="M14">
+        <v>0.1555915933182655</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0.61648303482216382</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>0.35192826672536393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1969</v>
+      </c>
+      <c r="D15">
+        <v>0.37575771936657382</v>
+      </c>
+      <c r="E15">
+        <v>0.29609561765044146</v>
+      </c>
+      <c r="F15">
+        <v>0.2281881674739128</v>
+      </c>
+      <c r="G15">
+        <v>8.5336791940802154E-2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.67185333701701522</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0.31352495941471492</v>
+      </c>
+      <c r="J15">
+        <v>0.47860712039776987</v>
+      </c>
+      <c r="K15">
+        <v>0.27990119053372525</v>
+      </c>
+      <c r="L15">
+        <v>0.13726194582858334</v>
+      </c>
+      <c r="M15">
+        <v>5.6952490337606708E-2</v>
+      </c>
+      <c r="N15">
+        <f>J15+K15</f>
+        <v>0.75850831093149518</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>0.19421443616619005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18">
+        <f>CORREL(C3:C15,D3:D15)</f>
+        <v>-0.54952992556108538</v>
+      </c>
+      <c r="E18">
+        <f>CORREL(C3:C15, E3:E15)</f>
+        <v>-5.744511982973808E-2</v>
+      </c>
+      <c r="F18">
+        <f>CORREL(C3:C15,F3:F15)</f>
+        <v>0.28957696156826518</v>
+      </c>
+      <c r="G18">
+        <f>CORREL(C3:C15,G3:G15)</f>
+        <v>0.35746964954216331</v>
+      </c>
+      <c r="H18">
+        <f>CORREL(C3:C15,H3:H15)</f>
+        <v>-0.38032408105503812</v>
+      </c>
+      <c r="I18">
+        <f>CORREL(C3:C15,I3:I15)</f>
+        <v>0.41406611263597498</v>
+      </c>
+      <c r="J18">
+        <f>CORREL(C3:C15,J3:J15)</f>
+        <v>-0.30524513010754434</v>
+      </c>
+      <c r="K18">
+        <f>CORREL(C3:C15,K3:K15)</f>
+        <v>-0.1334069135444875</v>
+      </c>
+      <c r="L18">
+        <f>CORREL(C3:C15,L3:L15)</f>
+        <v>0.27889027899576357</v>
+      </c>
+      <c r="M18">
+        <f>CORREL(C3:C15,M3:M15)</f>
+        <v>0.19624990372265241</v>
+      </c>
+      <c r="N18">
+        <f>CORREL(C3:C15,N3:N15)</f>
+        <v>-0.37254803085518695</v>
+      </c>
+      <c r="O18">
+        <f>CORREL(C3:C15,O3:O15)</f>
+        <v>0.30232201913361817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19">
+        <f>CORREL(B3:B15,D3:D15)</f>
+        <v>-0.52921303568707367</v>
+      </c>
+      <c r="E19">
+        <f>CORREL(B3:B15,E3:E15)</f>
+        <v>-0.10808366593631862</v>
+      </c>
+      <c r="F19">
+        <f>CORREL(B3:B15,F3:F15)</f>
+        <v>0.30555016402382912</v>
+      </c>
+      <c r="G19">
+        <f>CORREL(B3:B15,G3:G15)</f>
+        <v>0.39879095825163108</v>
+      </c>
+      <c r="H19">
+        <f>CORREL(B3:B15,H3:H15)</f>
+        <v>-0.40936657936609328</v>
+      </c>
+      <c r="I19">
+        <f>CORREL(B3:B15,I3:I15)</f>
+        <v>0.45328541010564494</v>
+      </c>
+      <c r="J19">
+        <f>CORREL(B3:B15,J3:J15)</f>
+        <v>-0.27868157281885808</v>
+      </c>
+      <c r="K19">
+        <f>CORREL(B3:B15,K3:K15)</f>
+        <v>-0.18683171719649144</v>
+      </c>
+      <c r="L19">
+        <f>CORREL(B3:B15,L3:L15)</f>
+        <v>0.22702481845907369</v>
+      </c>
+      <c r="M19">
+        <f>CORREL(B3:B15,M3:M15)</f>
+        <v>0.26502924218772178</v>
+      </c>
+      <c r="N19">
+        <f>CORREL(B3:B15,N3:N15)</f>
+        <v>-0.39708074010227074</v>
+      </c>
+      <c r="O19">
+        <f>CORREL(B3:B15,O3:O15)</f>
+        <v>0.31080311930265075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22">
+        <f>CORREL(C3:C11,D3:D11)</f>
+        <v>-0.7386733786988039</v>
+      </c>
+      <c r="E22">
+        <f>CORREL(C3:C11, E3:E11)</f>
+        <v>-0.46935434147960164</v>
+      </c>
+      <c r="F22">
+        <f>CORREL(C3:C11,F3:F11)</f>
+        <v>0.5892862641866029</v>
+      </c>
+      <c r="G22">
+        <f>CORREL(C3:C11,G3:G11)</f>
+        <v>0.64701703017693224</v>
+      </c>
+      <c r="H22">
+        <f>CORREL(C3:C11,H3:H11)</f>
+        <v>-0.80313655548330132</v>
+      </c>
+      <c r="I22">
+        <f>CORREL(C3:C11,I3:I11)</f>
+        <v>0.84063069366283416</v>
+      </c>
+      <c r="J22">
+        <f>CORREL(C3:C11,J3:J11)</f>
+        <v>-0.51790052273916865</v>
+      </c>
+      <c r="K22">
+        <f>CORREL(C3:C11,K3:K11)</f>
+        <v>-0.22745146997292967</v>
+      </c>
+      <c r="L22">
+        <f>CORREL(C3:C11,L3:L11)</f>
+        <v>0.43350991835859426</v>
+      </c>
+      <c r="M22">
+        <f>CORREL(C3:C11,M3:M11)</f>
+        <v>0.62384538809294665</v>
+      </c>
+      <c r="N22">
+        <f>CORREL(C3:C11,N3:N11)</f>
+        <v>-0.64226567613901375</v>
+      </c>
+      <c r="O22">
+        <f>CORREL(C3:C11,O3:O11)</f>
+        <v>0.56451078156968237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23">
+        <f>CORREL(B3:B11,D3:D11)</f>
+        <v>-0.69149372306583112</v>
+      </c>
+      <c r="E23">
+        <f>CORREL(B3:B11,E3:E11)</f>
+        <v>-0.38540853809660158</v>
+      </c>
+      <c r="F23">
+        <f>CORREL(B3:B11,F3:F11)</f>
+        <v>0.49564222736663649</v>
+      </c>
+      <c r="G23">
+        <f>CORREL(B3:B11,G3:G11)</f>
+        <v>0.61688070313313614</v>
+      </c>
+      <c r="H23">
+        <f>CORREL(B3:B11,H3:H11)</f>
+        <v>-0.71644144588906189</v>
+      </c>
+      <c r="I23">
+        <f>CORREL(B3:B11,I3:I11)</f>
+        <v>0.76559038086638087</v>
+      </c>
+      <c r="J23">
+        <f>CORREL(B3:B11,J3:J11)</f>
+        <v>-0.3575329931001478</v>
+      </c>
+      <c r="K23">
+        <f>CORREL(B3:B11,K3:K11)</f>
+        <v>-0.32295735324614905</v>
+      </c>
+      <c r="L23">
+        <f>CORREL(B3:B11,L3:L11)</f>
+        <v>0.37177051832564034</v>
+      </c>
+      <c r="M23">
+        <f>CORREL(B3:B11,M3:M11)</f>
+        <v>0.60192083619838888</v>
+      </c>
+      <c r="N23">
+        <f>CORREL(B3:B11,N3:N11)</f>
+        <v>-0.60717993824139171</v>
+      </c>
+      <c r="O23">
+        <f>CORREL(B3:B11,O3:O11)</f>
+        <v>0.51579357469438847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26">
+        <f>CORREL(C12:C15,D12:D15)</f>
+        <v>0.32093745567747833</v>
+      </c>
+      <c r="E26">
+        <f>CORREL(C12:C15, E12:E15)</f>
+        <v>0.14113653878787485</v>
+      </c>
+      <c r="F26">
+        <f>CORREL(C12:C15,F12:F15)</f>
+        <v>0.25104301868952733</v>
+      </c>
+      <c r="G26">
+        <f>CORREL(C12:C15,G12:G15)</f>
+        <v>-0.49665988140871248</v>
+      </c>
+      <c r="H26">
+        <f>CORREL(C12:C15,H12:H15)</f>
+        <v>0.27820093795182593</v>
+      </c>
+      <c r="I26">
+        <f>CORREL(C12:C15,I12:I15)</f>
+        <v>-0.23274569791422769</v>
+      </c>
+      <c r="J26">
+        <f>CORREL(C12:C15,J12:J15)</f>
+        <v>4.7804287824648163E-2</v>
+      </c>
+      <c r="K26">
+        <f>CORREL(C12:C15,K12:K15)</f>
+        <v>0.67088572828448889</v>
+      </c>
+      <c r="L26">
+        <f>CORREL(C12:C15,L12:L15)</f>
+        <v>0.13562811176944872</v>
+      </c>
+      <c r="M26">
+        <f>CORREL(C12:C15,M12:M15)</f>
+        <v>-0.2640495784614309</v>
+      </c>
+      <c r="N26">
+        <f>CORREL(C12:C15,N12:N15)</f>
+        <v>0.18627977314420407</v>
+      </c>
+      <c r="O26">
+        <f>CORREL(C12:C15,O12:O15)</f>
+        <v>-0.14228619543568652</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27">
+        <f>CORREL(B12:B15,D12:D15)</f>
+        <v>0.25086303741336541</v>
+      </c>
+      <c r="E27">
+        <f>CORREL(B12:B15,E12:E15)</f>
+        <v>-0.48487925708941854</v>
+      </c>
+      <c r="F27">
+        <f>CORREL(B12:B15,F12:F15)</f>
+        <v>0.71620009532003881</v>
+      </c>
+      <c r="G27">
+        <f>CORREL(B12:B15,G12:G15)</f>
+        <v>0.16418532806240344</v>
+      </c>
+      <c r="H27">
+        <f>CORREL(B12:B15,H12:H15)</f>
+        <v>-0.39001990121195773</v>
+      </c>
+      <c r="I27">
+        <f>CORREL(B12:B15,I12:I15)</f>
+        <v>0.42024803565945451</v>
+      </c>
+      <c r="J27">
+        <f>CORREL(B12:B15,J12:J15)</f>
+        <v>-0.49387515099565332</v>
+      </c>
+      <c r="K27">
+        <f>CORREL(B12:B15,K12:K15)</f>
+        <v>0.69540688784171834</v>
+      </c>
+      <c r="L27">
+        <f>CORREL(B12:B15,L12:L15)</f>
+        <v>-0.19935448763885991</v>
+      </c>
+      <c r="M27">
+        <f>CORREL(B12:B15,M12:M15)</f>
+        <v>0.38555905080250547</v>
+      </c>
+      <c r="N27">
+        <f>CORREL(B12:B15,N12:N15)</f>
+        <v>-0.31895491976748985</v>
+      </c>
+      <c r="O27">
+        <f>CORREL(B12:B15,O12:O15)</f>
+        <v>0.206806861324703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17:AI17"/>
+      <selection activeCell="AF18" sqref="AF18:AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16981,7 +20299,7 @@
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16:AI16"/>
+      <selection activeCell="AF17" sqref="AF17:AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18730,7 +22048,7 @@
   <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17:AI17"/>
+      <selection activeCell="AF18" sqref="AF18:AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20597,7 +23915,7 @@
   <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17:AI17"/>
+      <selection activeCell="AF18" sqref="AF18:AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22463,7 +25781,7 @@
   <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AI23" sqref="AI23"/>
+      <selection activeCell="AF18" sqref="AF18:AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24329,7 +27647,7 @@
   <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17:AI17"/>
+      <selection activeCell="AF18" sqref="AF18:AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26194,7 +29512,7 @@
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16:AI16"/>
+      <selection activeCell="AF17" sqref="AF17:AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27941,7 +31259,7 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14:AI14"/>
+      <selection activeCell="AF15" sqref="AF15:AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Korrelationsanalyse/correlation_analysis.xlsx
+++ b/Korrelationsanalyse/correlation_analysis.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florian/Documents/GitHub/beatlesAnalysis/Korrelationsanalyse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\GitHub\beatlesAnalysis\Korrelationsanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="600" windowWidth="27100" windowHeight="16380" tabRatio="500" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="405" yWindow="600" windowWidth="27105" windowHeight="16380" tabRatio="500" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="01_Please Please Me" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet name="12_Abbey Road" sheetId="12" r:id="rId12"/>
     <sheet name="13_Let It Be" sheetId="13" r:id="rId13"/>
     <sheet name="Analyse Mittelwert" sheetId="14" r:id="rId14"/>
-    <sheet name="Analyse Mittelwert gestutzt" sheetId="15" r:id="rId15"/>
+    <sheet name="Analyse_neu" sheetId="16" r:id="rId15"/>
+    <sheet name="Analyse Mittelwert gestutzt" sheetId="15" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_01_Please_Please_Me_analysis_1" localSheetId="0">'01_Please Please Me'!$A$1:$Y$15</definedName>
@@ -43,7 +44,7 @@
     <definedName name="_12_Abbey_Road_analysis" localSheetId="11">'12_Abbey Road'!$A$1:$Y$18</definedName>
     <definedName name="_13_Let_It_Be_analysis" localSheetId="12">'13_Let It Be'!$A$1:$Y$13</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -464,7 +465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="245">
   <si>
     <t>song_title</t>
   </si>
@@ -1204,7 +1205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1388,7 +1389,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1427,21 +1428,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1449,12 +1451,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1493,7 +1498,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1570,8 +1574,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.355096237970254"/>
-                  <c:y val="-0.271052785068533"/>
+                  <c:x val="0.35509623797025403"/>
+                  <c:y val="-0.27105278506853298"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1611,31 +1615,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,36 +1651,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.706545247472418</c:v>
+                  <c:v>0.70654524747241831</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.703756193899801</c:v>
+                  <c:v>0.70375619389980115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.643907841287215</c:v>
+                  <c:v>0.6439078412872149</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.713508109182968</c:v>
+                  <c:v>0.71350810918296836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.658061273533227</c:v>
+                  <c:v>0.65806127353322741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.671290414298163</c:v>
+                  <c:v>0.67129041429816305</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.631927401813388</c:v>
+                  <c:v>0.63192740181338825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.600557254730731</c:v>
+                  <c:v>0.60055725473073118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.660398636124428</c:v>
+                  <c:v>0.66039863612442851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D0C-4B63-8A36-D8247D35BEFF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1722,7 +1731,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1752,6 +1760,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1853,7 +1862,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1934,7 +1942,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2002,7 +2009,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -2046,7 +2053,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2123,8 +2129,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.351415135608049"/>
-                  <c:y val="0.0243941382327209"/>
+                  <c:x val="0.35141513560804899"/>
+                  <c:y val="2.4394138232720901E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2164,16 +2170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2185,13 +2191,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.362056997223656</c:v>
+                  <c:v>0.3620569972236562</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.276891347224055</c:v>
+                  <c:v>0.27689134722405456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.402117917312207</c:v>
+                  <c:v>0.40211791731220714</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.329855651678298</c:v>
@@ -2200,6 +2206,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D26-491C-ADB1-1CB09C4B7351}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2245,7 +2256,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2275,6 +2285,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2376,7 +2387,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2406,6 +2416,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2456,7 +2467,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2524,7 +2534,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -2563,7 +2573,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2640,8 +2649,1083 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.355096237970254"/>
-                  <c:y val="-0.271052785068533"/>
+                  <c:x val="0.35509623797025403"/>
+                  <c:y val="-0.27105278506853298"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analyse_neu!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analyse_neu!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.70654524747241831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70375619389980115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6439078412872149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71350810918296836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65806127353322741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67129041429816305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63192740181338825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60055725473073118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5CEB-4F99-9EDE-4877CD6ACBFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1031310448"/>
+        <c:axId val="1066520288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1031310448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Album</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1066520288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1066520288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anteil</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1031310448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Phase2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Ebene3+Ebene4</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.35141513560804899"/>
+                  <c:y val="2.4394138232720901E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analyse_neu!$B$11:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analyse_neu!$I$11:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.3396013638755716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3620569972236562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27689134722405456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40211791731220714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.329855651678298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B6B-4D36-8EE3-7CECBBE64F89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1066545104"/>
+        <c:axId val="1066548496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1066545104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Album</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1066548496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1066548496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anteil</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1066545104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Phase 1 Ebene1+Ebene2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.35509623797025403"/>
+                  <c:y val="-0.27105278506853298"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2681,31 +3765,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2717,36 +3801,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.711356115651941</c:v>
+                  <c:v>0.71135611565194146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.699026968861222</c:v>
+                  <c:v>0.69902696886122229</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.644630603301365</c:v>
+                  <c:v>0.64463060330136479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.715994565075436</c:v>
+                  <c:v>0.71599456507543602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.660459751593787</c:v>
+                  <c:v>0.66045975159378667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.672568233531969</c:v>
+                  <c:v>0.67256823353196893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.624228503738349</c:v>
+                  <c:v>0.62422850373834882</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.597172953942466</c:v>
+                  <c:v>0.59717295394246572</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.651627670580563</c:v>
+                  <c:v>0.65162767058056337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C3F1-4B72-8707-B1D2252A37DF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2792,7 +3881,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2822,6 +3910,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2923,7 +4012,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3004,7 +4092,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3071,8 +4158,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -3116,7 +4203,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3193,8 +4279,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.351415135608049"/>
-                  <c:y val="0.0243941382327209"/>
+                  <c:x val="0.35141513560804899"/>
+                  <c:y val="2.4394138232720901E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3234,16 +4320,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3255,21 +4341,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.352516860387831</c:v>
+                  <c:v>0.35251686038783153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.276891347224055</c:v>
+                  <c:v>0.27689134722405456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.395762391976179</c:v>
+                  <c:v>0.39576239197617868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.313524959414715</c:v>
+                  <c:v>0.31352495941471492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-996F-417F-B4C3-5A5EFE159993}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3315,7 +4406,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3345,6 +4435,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3446,7 +4537,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3476,6 +4566,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3526,7 +4617,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3714,6 +4804,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5817,6 +6987,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5834,7 +8036,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5864,7 +8072,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5899,7 +8113,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C0B2D3C-21A5-4774-A09C-57474887A7F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5931,7 +8151,94 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED9032A-14E4-47C3-BFB7-68501323C1F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2279650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6272,37 +8579,37 @@
       <selection activeCell="AF18" sqref="AF18:AI18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.5" style="1" customWidth="1"/>
-    <col min="28" max="30" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="35" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="10.83203125" style="1"/>
+    <col min="28" max="30" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="35" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6409,7 +8716,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -6526,7 +8833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -6643,7 +8950,7 @@
         <v>6.8259385665529013E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -6760,7 +9067,7 @@
         <v>4.198250728862974E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -6877,7 +9184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -6994,7 +9301,7 @@
         <v>9.2356687898089165E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -7111,7 +9418,7 @@
         <v>1.3129102844638949E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -7228,7 +9535,7 @@
         <v>0.12264150943396226</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -7345,7 +9652,7 @@
         <v>6.3953488372093026E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -7462,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -7579,7 +9886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -7696,7 +10003,7 @@
         <v>3.2967032967032968E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -7813,7 +10120,7 @@
         <v>6.0665362035225046E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -7930,7 +10237,7 @@
         <v>4.49438202247191E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -8047,7 +10354,7 @@
         <v>1.3368983957219251E-3</v>
       </c>
     </row>
-    <row r="17" spans="26:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="26:35" x14ac:dyDescent="0.25">
       <c r="Z17" s="21" t="s">
         <v>218</v>
       </c>
@@ -8087,7 +10394,7 @@
         <v>3.8731128223260088E-2</v>
       </c>
     </row>
-    <row r="18" spans="26:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="26:35" x14ac:dyDescent="0.25">
       <c r="Z18" s="21" t="s">
         <v>219</v>
       </c>
@@ -8141,33 +10448,33 @@
       <selection activeCell="AF33" sqref="AF33:AI33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8274,7 +10581,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>146</v>
       </c>
@@ -8391,7 +10698,7 @@
         <v>0.16104868913857678</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>147</v>
       </c>
@@ -8508,7 +10815,7 @@
         <v>0.3833116036505867</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>148</v>
       </c>
@@ -8625,7 +10932,7 @@
         <v>0.12121212121212122</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>149</v>
       </c>
@@ -8742,7 +11049,7 @@
         <v>0.27061855670103091</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>150</v>
       </c>
@@ -8859,7 +11166,7 @@
         <v>6.1264822134387352E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>151</v>
       </c>
@@ -8976,7 +11283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>152</v>
       </c>
@@ -9093,7 +11400,7 @@
         <v>0.30722891566265059</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>153</v>
       </c>
@@ -9210,7 +11517,7 @@
         <v>0.27619708535739068</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>154</v>
       </c>
@@ -9327,7 +11634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>155</v>
       </c>
@@ -9444,7 +11751,7 @@
         <v>2.3833167825223437E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>156</v>
       </c>
@@ -9561,7 +11868,7 @@
         <v>8.6840939299955691E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>157</v>
       </c>
@@ -9678,7 +11985,7 @@
         <v>8.818541548897682E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>158</v>
       </c>
@@ -9795,7 +12102,7 @@
         <v>0.10085836909871244</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>159</v>
       </c>
@@ -9912,7 +12219,7 @@
         <v>5.0080775444264945E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>160</v>
       </c>
@@ -10029,7 +12336,7 @@
         <v>2.4390243902439025E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>161</v>
       </c>
@@ -10146,7 +12453,7 @@
         <v>1.7595307917888565E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>162</v>
       </c>
@@ -10263,7 +12570,7 @@
         <v>7.3260073260073263E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>163</v>
       </c>
@@ -10380,7 +12687,7 @@
         <v>5.1407588739290085E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>164</v>
       </c>
@@ -10497,7 +12804,7 @@
         <v>7.5471698113207544E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>165</v>
       </c>
@@ -10614,7 +12921,7 @@
         <v>0.45476190476190476</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>166</v>
       </c>
@@ -10731,7 +13038,7 @@
         <v>3.5768878018954446E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>167</v>
       </c>
@@ -10848,7 +13155,7 @@
         <v>1.282051282051282E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>168</v>
       </c>
@@ -10965,7 +13272,7 @@
         <v>6.2534896705750978E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>169</v>
       </c>
@@ -11082,7 +13389,7 @@
         <v>8.8414634146341459E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>170</v>
       </c>
@@ -11199,7 +13506,7 @@
         <v>4.5801526717557252E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>171</v>
       </c>
@@ -11316,7 +13623,7 @@
         <v>0.12819638595294919</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>172</v>
       </c>
@@ -11433,7 +13740,7 @@
         <v>1.034928848641656E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>173</v>
       </c>
@@ -11550,7 +13857,7 @@
         <v>0.20526315789473684</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>174</v>
       </c>
@@ -11667,7 +13974,7 @@
         <v>0.34224598930481281</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Z32" s="21" t="s">
         <v>218</v>
       </c>
@@ -11707,7 +14014,7 @@
         <v>0.12272284647436942</v>
       </c>
     </row>
-    <row r="33" spans="26:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="26:35" x14ac:dyDescent="0.25">
       <c r="Z33" s="21" t="s">
         <v>219</v>
       </c>
@@ -11760,36 +14067,36 @@
       <selection activeCell="AF8" sqref="AF8:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11896,7 +14203,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>175</v>
       </c>
@@ -12013,7 +14320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>176</v>
       </c>
@@ -12130,7 +14437,7 @@
         <v>2.748414376321353E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>177</v>
       </c>
@@ -12247,7 +14554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>178</v>
       </c>
@@ -12364,7 +14671,7 @@
         <v>5.2093023255813956E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Z7" s="21" t="s">
         <v>218</v>
       </c>
@@ -12404,7 +14711,7 @@
         <v>1.989429175475687E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Z8" s="21" t="s">
         <v>219</v>
       </c>
@@ -12457,33 +14764,33 @@
       <selection activeCell="AF21" sqref="AF21:AI21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="1"/>
+    <col min="26" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12590,7 +14897,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>179</v>
       </c>
@@ -12707,7 +15014,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>180</v>
       </c>
@@ -12824,7 +15131,7 @@
         <v>1.8148820326678765E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>181</v>
       </c>
@@ -12941,7 +15248,7 @@
         <v>0.30713245997088789</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>182</v>
       </c>
@@ -13058,7 +15365,7 @@
         <v>3.2786885245901641E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>183</v>
       </c>
@@ -13175,7 +15482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>184</v>
       </c>
@@ -13292,7 +15599,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>185</v>
       </c>
@@ -13409,7 +15716,7 @@
         <v>0.18632676709154114</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>186</v>
       </c>
@@ -13526,7 +15833,7 @@
         <v>5.1996285979572884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>187</v>
       </c>
@@ -13643,7 +15950,7 @@
         <v>0.26530612244897961</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>188</v>
       </c>
@@ -13760,7 +16067,7 @@
         <v>1.5957446808510637E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>189</v>
       </c>
@@ -13877,7 +16184,7 @@
         <v>8.5534591194968548E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>190</v>
       </c>
@@ -13994,7 +16301,7 @@
         <v>0.37452711223203028</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>191</v>
       </c>
@@ -14111,7 +16418,7 @@
         <v>0.16682027649769585</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>192</v>
       </c>
@@ -14228,7 +16535,7 @@
         <v>0.21422142214221424</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>193</v>
       </c>
@@ -14345,7 +16652,7 @@
         <v>0.55210420841683372</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>194</v>
       </c>
@@ -14462,7 +16769,7 @@
         <v>0.28927038626609441</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>195</v>
       </c>
@@ -14579,10 +16886,10 @@
         <v>4.21792618629174E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AC19" s="23"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Z20" s="21" t="s">
         <v>218</v>
       </c>
@@ -14622,7 +16929,7 @@
         <v>0.16976341812887152</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Z21" s="21" t="s">
         <v>219</v>
       </c>
@@ -14675,33 +16982,33 @@
       <selection activeCell="AF16" sqref="AF16:AI16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="1"/>
+    <col min="26" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14808,7 +17115,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>196</v>
       </c>
@@ -14925,7 +17232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>197</v>
       </c>
@@ -15042,7 +17349,7 @@
         <v>0.1967005076142132</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>198</v>
       </c>
@@ -15159,7 +17466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>199</v>
       </c>
@@ -15276,7 +17583,7 @@
         <v>3.4188034188034191E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>200</v>
       </c>
@@ -15393,7 +17700,7 @@
         <v>7.0640176600441501E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>201</v>
       </c>
@@ -15510,7 +17817,7 @@
         <v>0.33873144399460187</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>202</v>
       </c>
@@ -15627,7 +17934,7 @@
         <v>0.1477900552486188</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>203</v>
       </c>
@@ -15744,7 +18051,7 @@
         <v>1.5523932729624838E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>204</v>
       </c>
@@ -15861,7 +18168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>205</v>
       </c>
@@ -15978,7 +18285,7 @@
         <v>0.11865373645179692</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>206</v>
       </c>
@@ -16095,7 +18402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>207</v>
       </c>
@@ -16212,7 +18519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Z15" s="21" t="s">
         <v>218</v>
       </c>
@@ -16252,7 +18559,7 @@
         <v>7.5688028947555747E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Z16" s="21" t="s">
         <v>219</v>
       </c>
@@ -16301,20 +18608,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.875" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>220</v>
       </c>
@@ -16361,7 +18668,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>222</v>
       </c>
@@ -16412,7 +18719,7 @@
         <v>0.21486369796583332</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>223</v>
       </c>
@@ -16463,7 +18770,7 @@
         <v>0.23976093047986091</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>224</v>
       </c>
@@ -16514,7 +18821,7 @@
         <v>0.36327500821994785</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>225</v>
       </c>
@@ -16565,7 +18872,7 @@
         <v>0.21918156502352121</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>226</v>
       </c>
@@ -16616,7 +18923,7 @@
         <v>0.22240158424212719</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -16667,7 +18974,7 @@
         <v>0.31213511175061409</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>228</v>
       </c>
@@ -16718,7 +19025,7 @@
         <v>0.38493268294466482</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>229</v>
       </c>
@@ -16769,7 +19076,7 @@
         <v>0.37998006374722276</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>230</v>
       </c>
@@ -16820,7 +19127,7 @@
         <v>0.27934512137515111</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>231</v>
       </c>
@@ -16871,7 +19178,7 @@
         <v>0.32549965162525796</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>232</v>
       </c>
@@ -16922,7 +19229,7 @@
         <v>0.27205867501767256</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>233</v>
       </c>
@@ -16973,7 +19280,7 @@
         <v>0.39325015725634244</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>234</v>
       </c>
@@ -17024,12 +19331,12 @@
         <v>0.23621888406536595</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>238</v>
       </c>
@@ -17082,7 +19389,7 @@
         <v>0.35654033400260898</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>239</v>
       </c>
@@ -17135,12 +19442,12 @@
         <v>0.37372260578660382</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>238</v>
       </c>
@@ -17193,7 +19500,7 @@
         <v>0.57221595825938842</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>239</v>
       </c>
@@ -17246,12 +19553,12 @@
         <v>0.52060005415342814</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>238</v>
       </c>
@@ -17304,7 +19611,7 @@
         <v>-0.18283306073362532</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>239</v>
       </c>
@@ -17368,19 +19675,1085 @@
   <dimension ref="A2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.625" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="8" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="13" width="12.875" customWidth="1"/>
+    <col min="14" max="15" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1963</v>
+      </c>
+      <c r="D3">
+        <v>0.39620183553857735</v>
+      </c>
+      <c r="E3">
+        <v>0.31034341193384096</v>
+      </c>
+      <c r="F3">
+        <v>0.23933813266313053</v>
+      </c>
+      <c r="G3">
+        <v>5.411661986445112E-2</v>
+      </c>
+      <c r="H3">
+        <f xml:space="preserve"> D3+E3</f>
+        <v>0.70654524747241831</v>
+      </c>
+      <c r="I3">
+        <f>F3+G3</f>
+        <v>0.29345475252758163</v>
+      </c>
+      <c r="J3">
+        <v>0.41931092527472502</v>
+      </c>
+      <c r="K3">
+        <v>0.3658253767594416</v>
+      </c>
+      <c r="L3">
+        <v>0.17613256974257324</v>
+      </c>
+      <c r="M3">
+        <v>3.8731128223260088E-2</v>
+      </c>
+      <c r="N3">
+        <f>J3+K3</f>
+        <v>0.78513630203416662</v>
+      </c>
+      <c r="O3">
+        <f>L3+M3</f>
+        <v>0.21486369796583332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1963</v>
+      </c>
+      <c r="D4">
+        <v>0.38802398365428925</v>
+      </c>
+      <c r="E4">
+        <v>0.31573221024551185</v>
+      </c>
+      <c r="F4">
+        <v>0.21926075364977454</v>
+      </c>
+      <c r="G4">
+        <v>7.6983052450424347E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H15" si="0" xml:space="preserve"> D4+E4</f>
+        <v>0.70375619389980115</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I15" si="1">F4+G4</f>
+        <v>0.2962438061001989</v>
+      </c>
+      <c r="J4">
+        <v>0.52005317068656109</v>
+      </c>
+      <c r="K4">
+        <v>0.24018589883357802</v>
+      </c>
+      <c r="L4">
+        <v>0.17891936792336768</v>
+      </c>
+      <c r="M4">
+        <v>6.0841562556493221E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N14" si="2">J4+K4</f>
+        <v>0.76023906952013909</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O15" si="3">L4+M4</f>
+        <v>0.23976093047986091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1964</v>
+      </c>
+      <c r="D5">
+        <v>0.33301725283080413</v>
+      </c>
+      <c r="E5">
+        <v>0.31089058845641077</v>
+      </c>
+      <c r="F5">
+        <v>0.23628115527479845</v>
+      </c>
+      <c r="G5">
+        <v>0.11981100343798669</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.6439078412872149</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.35609215871278516</v>
+      </c>
+      <c r="J5">
+        <v>0.41040981933906895</v>
+      </c>
+      <c r="K5">
+        <v>0.22631517244098312</v>
+      </c>
+      <c r="L5">
+        <v>0.21471339367387116</v>
+      </c>
+      <c r="M5">
+        <v>0.14856161454607669</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>0.63672499178005204</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>0.36327500821994785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1964</v>
+      </c>
+      <c r="D6">
+        <v>0.363827985199554</v>
+      </c>
+      <c r="E6">
+        <v>0.34968012398341436</v>
+      </c>
+      <c r="F6">
+        <v>0.23529698733233656</v>
+      </c>
+      <c r="G6">
+        <v>5.119490348469509E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.71350810918296836</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.28649189081703164</v>
+      </c>
+      <c r="J6">
+        <v>0.47656279342095259</v>
+      </c>
+      <c r="K6">
+        <v>0.30425564155552615</v>
+      </c>
+      <c r="L6">
+        <v>0.14758228033239776</v>
+      </c>
+      <c r="M6">
+        <v>7.1599284691123449E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0.78081843497647874</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>0.21918156502352121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1965</v>
+      </c>
+      <c r="D7">
+        <v>0.345003080347555</v>
+      </c>
+      <c r="E7">
+        <v>0.31305819318567235</v>
+      </c>
+      <c r="F7">
+        <v>0.26326739233469876</v>
+      </c>
+      <c r="G7">
+        <v>7.8671334132073834E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.65806127353322741</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.34193872646677259</v>
+      </c>
+      <c r="J7">
+        <v>0.42475993959625219</v>
+      </c>
+      <c r="K7">
+        <v>0.35283847616162062</v>
+      </c>
+      <c r="L7">
+        <v>0.13552623584668302</v>
+      </c>
+      <c r="M7">
+        <v>8.6875348395444182E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0.77759841575787281</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>0.22240158424212719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1965</v>
+      </c>
+      <c r="D8">
+        <v>0.36383721126264851</v>
+      </c>
+      <c r="E8">
+        <v>0.30745320303551449</v>
+      </c>
+      <c r="F8">
+        <v>0.23650160848988697</v>
+      </c>
+      <c r="G8">
+        <v>9.2207977211950148E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.67129041429816305</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.32870958570183711</v>
+      </c>
+      <c r="J8">
+        <v>0.48281047418430972</v>
+      </c>
+      <c r="K8">
+        <v>0.20505441406507613</v>
+      </c>
+      <c r="L8">
+        <v>0.21432260495501526</v>
+      </c>
+      <c r="M8">
+        <v>9.781250679559883E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0.68786488824938585</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>0.31213511175061409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1966</v>
+      </c>
+      <c r="D9">
+        <v>0.36891208831969091</v>
+      </c>
+      <c r="E9">
+        <v>0.26301531349369728</v>
+      </c>
+      <c r="F9">
+        <v>0.22313077000188475</v>
+      </c>
+      <c r="G9">
+        <v>0.14494182818472709</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.63192740181338825</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.36807259818661187</v>
+      </c>
+      <c r="J9">
+        <v>0.45699001279588897</v>
+      </c>
+      <c r="K9">
+        <v>0.15807730425944627</v>
+      </c>
+      <c r="L9">
+        <v>0.23715911786827482</v>
+      </c>
+      <c r="M9">
+        <v>0.14777356507639</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0.61506731705533524</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>0.38493268294466482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1967</v>
+      </c>
+      <c r="D10">
+        <v>0.31717394603599597</v>
+      </c>
+      <c r="E10">
+        <v>0.28338330869473516</v>
+      </c>
+      <c r="F10">
+        <v>0.27564480838112621</v>
+      </c>
+      <c r="G10">
+        <v>0.12379793688814264</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.60055725473073118</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.39944274526926882</v>
+      </c>
+      <c r="J10">
+        <v>0.31162557756198195</v>
+      </c>
+      <c r="K10">
+        <v>0.30839435869079518</v>
+      </c>
+      <c r="L10">
+        <v>0.25737548362538631</v>
+      </c>
+      <c r="M10">
+        <v>0.12260458012183645</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0.62001993625277718</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>0.37998006374722276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1967</v>
+      </c>
+      <c r="D11">
+        <v>0.33491653550716988</v>
+      </c>
+      <c r="E11">
+        <v>0.32548210061725857</v>
+      </c>
+      <c r="F11">
+        <v>0.23300552395280985</v>
+      </c>
+      <c r="G11">
+        <v>0.10659583992276174</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.66039863612442851</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.3396013638755716</v>
+      </c>
+      <c r="J11">
+        <v>0.47287508771186304</v>
+      </c>
+      <c r="K11">
+        <v>0.24777979091298583</v>
+      </c>
+      <c r="L11">
+        <v>0.16655934716274209</v>
+      </c>
+      <c r="M11">
+        <v>0.112785774212409</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0.72065487862484889</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>0.27934512137515111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1968</v>
+      </c>
+      <c r="D12">
+        <v>0.33050597738101256</v>
+      </c>
+      <c r="E12">
+        <v>0.30743702539533113</v>
+      </c>
+      <c r="F12">
+        <v>0.23395601790198001</v>
+      </c>
+      <c r="G12">
+        <v>0.12810097932167619</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.63794300277634375</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.3620569972236562</v>
+      </c>
+      <c r="J12">
+        <v>0.42234025364146993</v>
+      </c>
+      <c r="K12">
+        <v>0.25216009473327206</v>
+      </c>
+      <c r="L12">
+        <v>0.20277680515088853</v>
+      </c>
+      <c r="M12">
+        <v>0.12272284647436942</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0.67450034837474204</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>0.32549965162525796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1969</v>
+      </c>
+      <c r="D13">
+        <v>0.33297935062289818</v>
+      </c>
+      <c r="E13">
+        <v>0.39012930215304731</v>
+      </c>
+      <c r="F13">
+        <v>0.22959061974880074</v>
+      </c>
+      <c r="G13">
+        <v>4.7300727475253809E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.72310865277594549</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0.27689134722405456</v>
+      </c>
+      <c r="J13">
+        <v>0.47156537418614841</v>
+      </c>
+      <c r="K13">
+        <v>0.25637595079617892</v>
+      </c>
+      <c r="L13">
+        <v>0.25216438326291568</v>
+      </c>
+      <c r="M13">
+        <v>1.989429175475687E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0.72794132498232733</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>0.27205867501767256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1969</v>
+      </c>
+      <c r="D14">
+        <v>0.3299547833244324</v>
+      </c>
+      <c r="E14">
+        <v>0.26792729936336046</v>
+      </c>
+      <c r="F14">
+        <v>0.27141509660340746</v>
+      </c>
+      <c r="G14">
+        <v>0.13070282070879968</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.59788208268779286</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.40211791731220714</v>
+      </c>
+      <c r="J14">
+        <v>0.34412050674521799</v>
+      </c>
+      <c r="K14">
+        <v>0.26262933599843968</v>
+      </c>
+      <c r="L14">
+        <v>0.22348673912747091</v>
+      </c>
+      <c r="M14">
+        <v>0.16976341812887152</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0.60674984274365773</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>0.39325015725634244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1969</v>
+      </c>
+      <c r="D15">
+        <v>0.37262242823324682</v>
+      </c>
+      <c r="E15">
+        <v>0.29752192008845524</v>
+      </c>
+      <c r="F15">
+        <v>0.23408415616159864</v>
+      </c>
+      <c r="G15">
+        <v>9.5771495516699376E-2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.670144348321702</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0.329855651678298</v>
+      </c>
+      <c r="J15">
+        <v>0.48718909769547275</v>
+      </c>
+      <c r="K15">
+        <v>0.27659201823916119</v>
+      </c>
+      <c r="L15">
+        <v>0.16053085511781021</v>
+      </c>
+      <c r="M15">
+        <v>7.5688028947555747E-2</v>
+      </c>
+      <c r="N15">
+        <f>J15+K15</f>
+        <v>0.76378111593463394</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>0.23621888406536595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18">
+        <f>CORREL(C3:C15,D3:D15)</f>
+        <v>-0.57455731552971712</v>
+      </c>
+      <c r="E18">
+        <f>CORREL(C3:C15, E3:E15)</f>
+        <v>-4.5108879849582492E-2</v>
+      </c>
+      <c r="F18">
+        <f>CORREL(C3:C15,F3:F15)</f>
+        <v>0.25474595135788874</v>
+      </c>
+      <c r="G18">
+        <f>CORREL(C3:C15,G3:G15)</f>
+        <v>0.3447934509012629</v>
+      </c>
+      <c r="H18">
+        <f>CORREL(C3:C15,H3:H15)</f>
+        <v>-0.38789017104373669</v>
+      </c>
+      <c r="I18">
+        <f>CORREL(C3:C15,I3:I15)</f>
+        <v>0.38789017104373658</v>
+      </c>
+      <c r="J18">
+        <f>CORREL(C3:C15,J3:J15)</f>
+        <v>-0.25126612116403757</v>
+      </c>
+      <c r="K18">
+        <f>CORREL(C3:C15,K3:K15)</f>
+        <v>-0.16563092661567203</v>
+      </c>
+      <c r="L18">
+        <f>CORREL(C3:C15,L3:L15)</f>
+        <v>0.37378924685272302</v>
+      </c>
+      <c r="M18">
+        <f>CORREL(C3:C15,M3:M15)</f>
+        <v>0.21120054066891444</v>
+      </c>
+      <c r="N18">
+        <f>CORREL(C3:C15,N3:N15)</f>
+        <v>-0.35654033400260898</v>
+      </c>
+      <c r="O18">
+        <f>CORREL(C3:C15,O3:O15)</f>
+        <v>0.35654033400260898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19">
+        <f>CORREL(B3:B15,D3:D15)</f>
+        <v>-0.55025386720336056</v>
+      </c>
+      <c r="E19">
+        <f>CORREL(B3:B15,E3:E15)</f>
+        <v>-0.10000520793956973</v>
+      </c>
+      <c r="F19">
+        <f>CORREL(B3:B15,F3:F15)</f>
+        <v>0.25843649054622536</v>
+      </c>
+      <c r="G19">
+        <f>CORREL(B3:B15,G3:G15)</f>
+        <v>0.37968316229907312</v>
+      </c>
+      <c r="H19" s="26">
+        <f>CORREL(B3:B15,H3:H15)</f>
+        <v>-0.41752873594757467</v>
+      </c>
+      <c r="I19">
+        <f>CORREL(B3:B15,I3:I15)</f>
+        <v>0.4175287359475745</v>
+      </c>
+      <c r="J19">
+        <f>CORREL(B3:B15,J3:J15)</f>
+        <v>-0.22096640296721465</v>
+      </c>
+      <c r="K19">
+        <f>CORREL(B3:B15,K3:K15)</f>
+        <v>-0.21738399811445006</v>
+      </c>
+      <c r="L19">
+        <f>CORREL(B3:B15,L3:L15)</f>
+        <v>0.33046361396691032</v>
+      </c>
+      <c r="M19">
+        <f>CORREL(B3:B15,M3:M15)</f>
+        <v>0.27587070169080263</v>
+      </c>
+      <c r="N19">
+        <f>CORREL(B3:B15,N3:N15)</f>
+        <v>-0.37372260578660388</v>
+      </c>
+      <c r="O19">
+        <f>CORREL(B3:B15,O3:O15)</f>
+        <v>0.37372260578660382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22">
+        <f>CORREL(C3:C10,D3:D10)</f>
+        <v>-0.69754013887623445</v>
+      </c>
+      <c r="E22">
+        <f>CORREL(C3:C10, E3:E10)</f>
+        <v>-0.65520254528132094</v>
+      </c>
+      <c r="F22">
+        <f>CORREL(C3:C10,F3:F10)</f>
+        <v>0.57725301045988375</v>
+      </c>
+      <c r="G22">
+        <f>CORREL(C3:C10,G3:G10)</f>
+        <v>0.70896216116637878</v>
+      </c>
+      <c r="H22">
+        <f>CORREL(C3:C10,H3:H10)</f>
+        <v>-0.87292439065298488</v>
+      </c>
+      <c r="I22">
+        <f>CORREL(C3:C10,I3:I10)</f>
+        <v>0.8729243906529851</v>
+      </c>
+      <c r="J22">
+        <f>CORREL(C3:C10,J3:J10)</f>
+        <v>-0.59851241690546575</v>
+      </c>
+      <c r="K22">
+        <f>CORREL(C3:C10,K3:K10)</f>
+        <v>-0.2160661962448876</v>
+      </c>
+      <c r="L22">
+        <f>CORREL(C3:C10,L3:L10)</f>
+        <v>0.62846409920707669</v>
+      </c>
+      <c r="M22">
+        <f>CORREL(C3:C10,M3:M10)</f>
+        <v>0.66603188535498248</v>
+      </c>
+      <c r="N22">
+        <f>CORREL(C3:C10,N3:N10)</f>
+        <v>-0.70456876545168057</v>
+      </c>
+      <c r="O22">
+        <f>CORREL(C3:C10,O3:O10)</f>
+        <v>0.70456876545168101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23">
+        <f>CORREL(B3:B10,D3:D10)</f>
+        <v>-0.62815037394574935</v>
+      </c>
+      <c r="E23">
+        <f>CORREL(B3:B10,E3:E10)</f>
+        <v>-0.57722000966708997</v>
+      </c>
+      <c r="F23">
+        <f>CORREL(B3:B10,F3:F10)</f>
+        <v>0.46018437933529022</v>
+      </c>
+      <c r="G23">
+        <f>CORREL(B3:B10,G3:G10)</f>
+        <v>0.66253109094734186</v>
+      </c>
+      <c r="H23">
+        <f>CORREL(B3:B10,H3:H10)</f>
+        <v>-0.77806740105441452</v>
+      </c>
+      <c r="I23">
+        <f>CORREL(B3:B10,I3:I10)</f>
+        <v>0.77806740105441496</v>
+      </c>
+      <c r="J23">
+        <f>CORREL(B3:B10,J3:J10)</f>
+        <v>-0.4178373366437042</v>
+      </c>
+      <c r="K23">
+        <f>CORREL(B3:B10,K3:K10)</f>
+        <v>-0.32660621083527169</v>
+      </c>
+      <c r="L23">
+        <f>CORREL(B3:B10,L3:L10)</f>
+        <v>0.57669925493221119</v>
+      </c>
+      <c r="M23">
+        <f>CORREL(B3:B10,M3:M10)</f>
+        <v>0.64095478335035827</v>
+      </c>
+      <c r="N23">
+        <f>CORREL(B3:B10,N3:N10)</f>
+        <v>-0.66226026707950991</v>
+      </c>
+      <c r="O23">
+        <f>CORREL(B3:B10,O3:O10)</f>
+        <v>0.66226026707951013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26">
+        <f>CORREL(C11:C15,D11:D15)</f>
+        <v>0.31035328716184979</v>
+      </c>
+      <c r="E26">
+        <f>CORREL(C11:C15, E11:E15)</f>
+        <v>-3.2544150109605208E-2</v>
+      </c>
+      <c r="F26">
+        <f>CORREL(C11:C15,F11:F15)</f>
+        <v>0.34103611691722235</v>
+      </c>
+      <c r="G26">
+        <f>CORREL(C11:C15,G11:G15)</f>
+        <v>-0.29986715305200201</v>
+      </c>
+      <c r="H26">
+        <f>CORREL(C11:C15,H11:H15)</f>
+        <v>9.1112255345222368E-2</v>
+      </c>
+      <c r="I26">
+        <f>CORREL(C11:C15,I11:I15)</f>
+        <v>-9.1112255345223062E-2</v>
+      </c>
+      <c r="J26">
+        <f>CORREL(C11:C15,J11:J15)</f>
+        <v>-0.23423131293646215</v>
+      </c>
+      <c r="K26">
+        <f>CORREL(C11:C15,K11:K15)</f>
+        <v>0.73847513730019998</v>
+      </c>
+      <c r="L26">
+        <f>CORREL(C11:C15,L11:L15)</f>
+        <v>0.48854961502769345</v>
+      </c>
+      <c r="M26">
+        <f>CORREL(C11:C15,M11:M15)</f>
+        <v>-0.23838892908320058</v>
+      </c>
+      <c r="N26">
+        <f>CORREL(C11:C15,N11:N15)</f>
+        <v>-9.0793368652198989E-2</v>
+      </c>
+      <c r="O26">
+        <f>CORREL(C11:C15,O11:O15)</f>
+        <v>9.0793368652198642E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27">
+        <f>CORREL(B11:B15,D11:D15)</f>
+        <v>0.27912672939386146</v>
+      </c>
+      <c r="E27">
+        <f>CORREL(B11:B15,E11:E15)</f>
+        <v>-0.43406202007334688</v>
+      </c>
+      <c r="F27">
+        <f>CORREL(B11:B15,F11:F15)</f>
+        <v>0.69811686351852653</v>
+      </c>
+      <c r="G27">
+        <f>CORREL(B11:B15,G11:G15)</f>
+        <v>7.441385476533395E-2</v>
+      </c>
+      <c r="H27">
+        <f>CORREL(B11:B15,H11:H15)</f>
+        <v>-0.32013297739787755</v>
+      </c>
+      <c r="I27">
+        <f>CORREL(B11:B15,I11:I15)</f>
+        <v>0.32013297739787711</v>
+      </c>
+      <c r="J27">
+        <f>CORREL(B11:B15,J11:J15)</f>
+        <v>-0.51847445080562815</v>
+      </c>
+      <c r="K27">
+        <f>CORREL(B11:B15,K11:K15)</f>
+        <v>0.76388259569045425</v>
+      </c>
+      <c r="L27">
+        <f>CORREL(B11:B15,L11:L15)</f>
+        <v>0.29355622179382435</v>
+      </c>
+      <c r="M27">
+        <f>CORREL(B11:B15,M11:M15)</f>
+        <v>0.18886772074600383</v>
+      </c>
+      <c r="N27">
+        <f>CORREL(B11:B15,N11:N15)</f>
+        <v>-0.36238553172724103</v>
+      </c>
+      <c r="O27">
+        <f>CORREL(B11:B15,O11:O15)</f>
+        <v>0.36238553172724097</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O27"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.875" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>220</v>
       </c>
@@ -17427,7 +20800,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>222</v>
       </c>
@@ -17478,7 +20851,7 @@
         <v>0.18760839636458951</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>223</v>
       </c>
@@ -17529,7 +20902,7 @@
         <v>0.2250428055920721</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>224</v>
       </c>
@@ -17580,7 +20953,7 @@
         <v>0.35346683577424032</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>225</v>
       </c>
@@ -17631,7 +21004,7 @@
         <v>0.20614646146441518</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>226</v>
       </c>
@@ -17682,7 +21055,7 @@
         <v>0.20878857062962808</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -17733,7 +21106,7 @@
         <v>0.28936275724678606</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>228</v>
       </c>
@@ -17784,7 +21157,7 @@
         <v>0.34866871316041476</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>229</v>
       </c>
@@ -17835,7 +21208,7 @@
         <v>0.35480433565298991</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>230</v>
       </c>
@@ -17886,7 +21259,7 @@
         <v>0.26497528239008722</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>231</v>
       </c>
@@ -17937,7 +21310,7 @@
         <v>0.29124523205252539</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>232</v>
       </c>
@@ -17988,7 +21361,7 @@
         <v>0.27205867501767256</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>233</v>
       </c>
@@ -18039,7 +21412,7 @@
         <v>0.35192826672536393</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>234</v>
       </c>
@@ -18090,12 +21463,12 @@
         <v>0.19421443616619005</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>238</v>
       </c>
@@ -18148,7 +21521,7 @@
         <v>0.30232201913361817</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>239</v>
       </c>
@@ -18201,12 +21574,12 @@
         <v>0.31080311930265075</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>238</v>
       </c>
@@ -18259,7 +21632,7 @@
         <v>0.56451078156968237</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>239</v>
       </c>
@@ -18312,12 +21685,12 @@
         <v>0.51579357469438847</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>238</v>
       </c>
@@ -18370,7 +21743,7 @@
         <v>-0.14228619543568652</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>239</v>
       </c>
@@ -18437,34 +21810,34 @@
       <selection activeCell="AF18" sqref="AF18:AI18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18571,7 +21944,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -18688,7 +22061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -18805,7 +22178,7 @@
         <v>6.5727699530516437E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -18922,7 +22295,7 @@
         <v>3.3594624860022394E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -19039,7 +22412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -19156,7 +22529,7 @@
         <v>2.5974025974025976E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -19273,7 +22646,7 @@
         <v>0.11441441441441441</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -19390,7 +22763,7 @@
         <v>0.23909531502423265</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -19507,7 +22880,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -19624,7 +22997,7 @@
         <v>0.15242242787152968</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -19741,7 +23114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -19858,7 +23231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -19975,7 +23348,7 @@
         <v>5.5401662049861494E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -20092,7 +23465,7 @@
         <v>0.16597510373443983</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -20209,7 +23582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="26:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="26:35" x14ac:dyDescent="0.25">
       <c r="Z17" s="21" t="s">
         <v>218</v>
       </c>
@@ -20249,7 +23622,7 @@
         <v>6.0841562556493221E-2</v>
       </c>
     </row>
-    <row r="18" spans="26:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="26:35" x14ac:dyDescent="0.25">
       <c r="Z18" s="21" t="s">
         <v>219</v>
       </c>
@@ -20302,35 +23675,35 @@
       <selection activeCell="AF17" sqref="AF17:AI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="1"/>
+    <col min="26" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20437,7 +23810,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -20554,7 +23927,7 @@
         <v>0.12934362934362933</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
@@ -20671,7 +24044,7 @@
         <v>0.36393989983305508</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
@@ -20788,7 +24161,7 @@
         <v>1.1278195488721804E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -20905,7 +24278,7 @@
         <v>0.40300751879699248</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
@@ -21022,7 +24395,7 @@
         <v>8.658008658008658E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
@@ -21139,7 +24512,7 @@
         <v>0.13664596273291926</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
@@ -21256,7 +24629,7 @@
         <v>0.18636363636363637</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
@@ -21373,7 +24746,7 @@
         <v>1.6181229773462782E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -21490,7 +24863,7 @@
         <v>1.9817073170731708E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -21607,7 +24980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -21724,7 +25097,7 @@
         <v>1.5065913370998116E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -21841,7 +25214,7 @@
         <v>0.45338983050847459</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -21958,7 +25331,7 @@
         <v>0.19540229885057472</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Z16" s="21" t="s">
         <v>218</v>
       </c>
@@ -21998,7 +25371,7 @@
         <v>0.14856161454607669</v>
       </c>
     </row>
-    <row r="17" spans="26:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="26:35" x14ac:dyDescent="0.25">
       <c r="Z17" s="21" t="s">
         <v>219</v>
       </c>
@@ -22051,36 +25424,36 @@
       <selection activeCell="AF18" sqref="AF18:AI18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="30.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22187,7 +25560,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -22304,7 +25677,7 @@
         <v>2.9433406916850625E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -22421,7 +25794,7 @@
         <v>9.9750623441396506E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -22538,7 +25911,7 @@
         <v>0.25117739403453687</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
@@ -22655,7 +26028,7 @@
         <v>4.8140043763676151E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
@@ -22772,7 +26145,7 @@
         <v>0.18007662835249041</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
@@ -22889,7 +26262,7 @@
         <v>3.272727272727273E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -23006,7 +26379,7 @@
         <v>0.25098039215686274</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -23123,7 +26496,7 @@
         <v>0.11904761904761904</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -23240,7 +26613,7 @@
         <v>4.0135669869983043E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -23357,7 +26730,7 @@
         <v>6.7186562687462509E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -23474,7 +26847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -23591,7 +26964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -23708,7 +27081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
@@ -23825,7 +27198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="26:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="26:35" x14ac:dyDescent="0.25">
       <c r="Z17" s="21" t="s">
         <v>218</v>
       </c>
@@ -23865,7 +27238,7 @@
         <v>7.1599284691123449E-2</v>
       </c>
     </row>
-    <row r="18" spans="26:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="26:35" x14ac:dyDescent="0.25">
       <c r="Z18" s="21" t="s">
         <v>219</v>
       </c>
@@ -23918,35 +27291,35 @@
       <selection activeCell="AF18" sqref="AF18:AI18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24053,7 +27426,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
@@ -24170,7 +27543,7 @@
         <v>1.4141414141414142E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>81</v>
       </c>
@@ -24287,7 +27660,7 @@
         <v>0.2431466030989273</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -24404,7 +27777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
@@ -24521,7 +27894,7 @@
         <v>0.16331658291457288</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
@@ -24638,7 +28011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
@@ -24755,7 +28128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
@@ -24872,7 +28245,7 @@
         <v>2.004008016032064E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -24989,7 +28362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -25106,7 +28479,7 @@
         <v>0.22488038277511962</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -25223,7 +28596,7 @@
         <v>6.4814814814814811E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
@@ -25340,7 +28713,7 @@
         <v>8.9506172839506168E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>91</v>
       </c>
@@ -25457,7 +28830,7 @@
         <v>1.4134275618374558E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>92</v>
       </c>
@@ -25574,7 +28947,7 @@
         <v>0.26363636363636361</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
@@ -25691,7 +29064,7 @@
         <v>0.1366742596810934</v>
       </c>
     </row>
-    <row r="17" spans="26:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="26:35" x14ac:dyDescent="0.25">
       <c r="Z17" s="21" t="s">
         <v>218</v>
       </c>
@@ -25731,7 +29104,7 @@
         <v>8.6875348395444182E-2</v>
       </c>
     </row>
-    <row r="18" spans="26:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="26:35" x14ac:dyDescent="0.25">
       <c r="Z18" s="21" t="s">
         <v>219</v>
       </c>
@@ -25784,35 +29157,35 @@
       <selection activeCell="AF18" sqref="AF18:AI18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="32.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25919,7 +29292,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>94</v>
       </c>
@@ -26036,7 +29409,7 @@
         <v>0.25077399380804954</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>95</v>
       </c>
@@ -26153,7 +29526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>96</v>
       </c>
@@ -26270,7 +29643,7 @@
         <v>0.15134255492270138</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -26387,7 +29760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>98</v>
       </c>
@@ -26504,7 +29877,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -26621,7 +29994,7 @@
         <v>0.24647122692725298</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>100</v>
       </c>
@@ -26738,7 +30111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>101</v>
       </c>
@@ -26855,7 +30228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>102</v>
       </c>
@@ -26972,7 +30345,7 @@
         <v>4.3831168831168832E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>103</v>
       </c>
@@ -27089,7 +30462,7 @@
         <v>6.0698027314112293E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>104</v>
       </c>
@@ -27206,7 +30579,7 @@
         <v>0.23714285714285716</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>105</v>
       </c>
@@ -27323,7 +30696,7 @@
         <v>3.1645569620253167E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>106</v>
       </c>
@@ -27440,7 +30813,7 @@
         <v>0.12654320987654322</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>107</v>
       </c>
@@ -27557,7 +30930,7 @@
         <v>0.16210295728368018</v>
       </c>
     </row>
-    <row r="17" spans="26:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="26:35" x14ac:dyDescent="0.25">
       <c r="Z17" s="21" t="s">
         <v>218</v>
       </c>
@@ -27597,7 +30970,7 @@
         <v>9.781250679559883E-2</v>
       </c>
     </row>
-    <row r="18" spans="26:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="26:35" x14ac:dyDescent="0.25">
       <c r="Z18" s="21" t="s">
         <v>219</v>
       </c>
@@ -27650,34 +31023,34 @@
       <selection activeCell="AF18" sqref="AF18:AI18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="25.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27784,7 +31157,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
@@ -27901,7 +31274,7 @@
         <v>0.62746781115879824</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
@@ -28018,7 +31391,7 @@
         <v>7.459677419354839E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
@@ -28135,7 +31508,7 @@
         <v>1.7797552836484983E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -28252,7 +31625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
@@ -28369,7 +31742,7 @@
         <v>0.15600624024960999</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
@@ -28486,7 +31859,7 @@
         <v>8.5043988269794715E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
@@ -28603,7 +31976,7 @@
         <v>1.5780730897009966E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -28720,7 +32093,7 @@
         <v>8.3234244946492272E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -28837,7 +32210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
@@ -28954,7 +32327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>118</v>
       </c>
@@ -29071,7 +32444,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>119</v>
       </c>
@@ -29188,7 +32561,7 @@
         <v>0.17753623188405798</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>120</v>
       </c>
@@ -29305,7 +32678,7 @@
         <v>0.6633663366336634</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>121</v>
       </c>
@@ -29422,7 +32795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="26:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="26:35" x14ac:dyDescent="0.25">
       <c r="Z17" s="21" t="s">
         <v>218</v>
       </c>
@@ -29462,7 +32835,7 @@
         <v>0.14777356507639</v>
       </c>
     </row>
-    <row r="18" spans="26:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="26:35" x14ac:dyDescent="0.25">
       <c r="Z18" s="21" t="s">
         <v>219</v>
       </c>
@@ -29515,33 +32888,33 @@
       <selection activeCell="AF17" sqref="AF17:AI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="39.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29648,7 +33021,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -29765,7 +33138,7 @@
         <v>6.2984938384299402E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>123</v>
       </c>
@@ -29882,7 +33255,7 @@
         <v>0.45774647887323944</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
@@ -29999,7 +33372,7 @@
         <v>9.3023255813953487E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
@@ -30116,7 +33489,7 @@
         <v>4.8030739673390969E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>126</v>
       </c>
@@ -30233,7 +33606,7 @@
         <v>0.18755477651183172</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
@@ -30350,7 +33723,7 @@
         <v>5.6689342403628121E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>128</v>
       </c>
@@ -30467,7 +33840,7 @@
         <v>4.7835990888382689E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>129</v>
       </c>
@@ -30584,7 +33957,7 @@
         <v>0.14761904761904762</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
@@ -30701,7 +34074,7 @@
         <v>0.19873532068654021</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>131</v>
       </c>
@@ -30818,7 +34191,7 @@
         <v>2.4282560706401765E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>132</v>
       </c>
@@ -30935,7 +34308,7 @@
         <v>8.1818181818181818E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>133</v>
       </c>
@@ -31052,7 +34425,7 @@
         <v>0.14918625678119349</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>134</v>
       </c>
@@ -31169,7 +34542,7 @@
         <v>8.590308370044053E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Z16" s="21" t="s">
         <v>218</v>
       </c>
@@ -31209,7 +34582,7 @@
         <v>0.12260458012183645</v>
       </c>
     </row>
-    <row r="17" spans="26:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="26:35" x14ac:dyDescent="0.25">
       <c r="Z17" s="21" t="s">
         <v>219</v>
       </c>
@@ -31262,35 +34635,35 @@
       <selection activeCell="AF15" sqref="AF15:AI15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="1"/>
+    <col min="26" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31397,7 +34770,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
@@ -31514,7 +34887,7 @@
         <v>3.0012004801920768E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>136</v>
       </c>
@@ -31631,7 +35004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>137</v>
       </c>
@@ -31748,7 +35121,7 @@
         <v>6.8789808917197451E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>138</v>
       </c>
@@ -31865,7 +35238,7 @@
         <v>0.13166666666666665</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>139</v>
       </c>
@@ -31982,7 +35355,7 @@
         <v>3.5523978685612786E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
@@ -32099,7 +35472,7 @@
         <v>0.30950170225936241</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>141</v>
       </c>
@@ -32216,7 +35589,7 @@
         <v>0.24372759856630824</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>142</v>
       </c>
@@ -32333,7 +35706,7 @@
         <v>0.28260869565217389</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>143</v>
       </c>
@@ -32450,7 +35823,7 @@
         <v>5.320994794679005E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>144</v>
       </c>
@@ -32567,7 +35940,7 @@
         <v>8.5603112840466927E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>145</v>
       </c>
@@ -32684,7 +36057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Z14" s="21" t="s">
         <v>218</v>
       </c>
@@ -32724,7 +36097,7 @@
         <v>0.112785774212409</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Z15" s="21" t="s">
         <v>219</v>
       </c>
